--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_equalweightpool.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="14.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
-    <col min="11" max="11" width="15.64453125" customWidth="true"/>
+    <col min="5" max="5" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.1796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25212462188038287</v>
+        <v>0.15230323915356636</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.26553294000138317</v>
+        <v>0.11598736211270563</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.013255334728257418</v>
+        <v>-0.059081311713364566</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0019109509209791872</v>
+        <v>0.0005927529448238499</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0021932073949950523</v>
+        <v>0.0085381789291849343</v>
       </c>
       <c r="G3" s="0">
-        <v>0.003245229389479732</v>
+        <v>0.0053936257584494109</v>
       </c>
       <c r="H3" s="0">
-        <v>-9.96993300153131e-05</v>
+        <v>0.00051753219910821214</v>
       </c>
       <c r="I3" s="0">
-        <v>0.0003509831296987239</v>
+        <v>-0.0013980766067389541</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00076062851955399635</v>
+        <v>0.0091214214476764144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.35267340573605166</v>
+        <v>0.43137244959696719</v>
       </c>
       <c r="C4" s="0">
-        <v>0.088277599461981091</v>
+        <v>0.19194857658988473</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00073694492978151145</v>
+        <v>-0.0025827950895372515</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00025647596685692811</v>
+        <v>1.964198094172598e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.5413329318628682e-05</v>
+        <v>-0.0062885301368054928</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00063748749512764922</v>
+        <v>0.08960951891194717</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.0019952946128648863</v>
+        <v>0.042607933829397662</v>
       </c>
       <c r="K4" s="0">
-        <v>0.0011986809577446134</v>
+        <v>7.0741398433063485e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.33568670273195877</v>
+        <v>0.39694044848297377</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.047393802969609621</v>
+        <v>0.02794208080349438</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0048004728561555432</v>
+        <v>0.016683534903639528</v>
       </c>
       <c r="F5" s="0">
-        <v>0.007907384742767776</v>
+        <v>-0.092092701707601227</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0061603968413511383</v>
+        <v>0.00048258317189948566</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0018430035613619196</v>
+        <v>-0.005299909083476652</v>
       </c>
       <c r="I5" s="0">
-        <v>0.006049485009111997</v>
+        <v>0.0012412810835039799</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0036463569547683927</v>
+        <v>0.016611129714547312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28324005671262981</v>
+        <v>0.21679316313667774</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.071118561717627621</v>
+        <v>-0.11938130990220323</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0032336929047680901</v>
+        <v>-0.0012695857048921678</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0031645777802387573</v>
+        <v>-0.0039215771353748414</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0020852469743064903</v>
+        <v>-0.01016927530699548</v>
       </c>
       <c r="I6" s="0">
-        <v>0.014506703990574989</v>
+        <v>-0.047086498870147063</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.0043183059515897737</v>
+        <v>0.0016809615733167083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.21916735070962462</v>
+        <v>0.23263062627119818</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.029663904860474821</v>
+        <v>0.16121473828115152</v>
       </c>
       <c r="E7" s="0">
-        <v>0.013349764624310369</v>
+        <v>-0.0043497658389031616</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.031986328219171113</v>
+        <v>-0.11064775848775787</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0010171737153268222</v>
+        <v>-0.0034892174515812053</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00046524332766161058</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00068135595743684934</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.015642811977898019</v>
+        <v>-0.026890533368388897</v>
       </c>
     </row>
     <row r="8">
